--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_18-42.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_18-42.xlsx
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>PENDULINE كريم ب زبدة الشيا</t>
+  </si>
+  <si>
+    <t>PIOMPRIDE 4/30 MG 30 TAB.</t>
   </si>
   <si>
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
@@ -2554,13 +2557,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>8</v>
+        <v>19.5</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2572,7 +2575,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2580,13 +2583,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2598,7 +2601,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2606,17 +2609,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2632,13 +2635,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>86.5</v>
+        <v>45</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2664,7 +2667,7 @@
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>67</v>
+        <v>86.5</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2684,17 +2687,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2710,17 +2713,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2736,17 +2739,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>30.5</v>
+        <v>282</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2762,13 +2765,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2780,7 +2783,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2788,17 +2791,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>60</v>
+        <v>31.5</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2820,7 +2823,7 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2840,13 +2843,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2866,13 +2869,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>68.400000000000006</v>
+        <v>24</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2892,17 +2895,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>26.100000000000001</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2918,13 +2921,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>62</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2944,17 +2947,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2970,17 +2973,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2988,7 +2991,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2996,17 +2999,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>94.5</v>
+        <v>102</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3022,17 +3025,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3040,7 +3043,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3048,17 +3051,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3074,13 +3077,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3100,13 +3103,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3118,7 +3121,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3126,13 +3129,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3152,17 +3155,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>121</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3170,7 +3173,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3178,17 +3181,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>42</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3196,7 +3199,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3204,17 +3207,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3222,7 +3225,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3230,13 +3233,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3248,7 +3251,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3256,13 +3259,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3282,13 +3285,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3296,37 +3299,63 @@
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
-      <c r="K93" s="10">
-        <v>5938.6700000000001</v>
-      </c>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
-    </row>
-    <row r="94" ht="17.25" customHeight="1">
-      <c t="s" r="A94" s="11">
+      <c r="A93" s="6">
+        <v>90</v>
+      </c>
+      <c t="s" r="B93" s="7">
+        <v>130</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c t="s" r="H93" s="8">
         <v>131</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c t="s" r="F94" s="12">
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="9">
+        <v>30</v>
+      </c>
+      <c r="M93" s="9"/>
+      <c t="s" r="N93" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="K94" s="10">
+        <v>5958.1700000000001</v>
+      </c>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="11">
         <v>132</v>
       </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="13"/>
-      <c t="s" r="I94" s="14">
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c t="s" r="F95" s="12">
         <v>133</v>
       </c>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="13"/>
+      <c t="s" r="I95" s="14">
+        <v>134</v>
+      </c>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="278">
+  <mergeCells count="281">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3601,10 +3630,13 @@
     <mergeCell ref="B92:G92"/>
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="I95:N95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
